--- a/fsdata/다원시스.xlsx
+++ b/fsdata/다원시스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E432C-257D-452D-A88F-B1E1380DA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52996F1E-5943-4467-BC38-E8D679B38118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="2880" windowWidth="16710" windowHeight="11130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -2230,7 +2230,7 @@
     <t>현금및현금성자산에대한환율변동효과</t>
   </si>
   <si>
-    <t>당분기순이익</t>
+    <t>당기순이익</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6178,7 +6178,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="63.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,6 +7422,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
